--- a/indicadores/tablas/pob/330104.xlsx
+++ b/indicadores/tablas/pob/330104.xlsx
@@ -435,7 +435,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -569,7 +569,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/indicadores/tablas/pob/330104.xlsx
+++ b/indicadores/tablas/pob/330104.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -78,10 +78,13 @@
     <t xml:space="preserve">CONINDICADOR</t>
   </si>
   <si>
+    <t xml:space="preserve">Informalidad (Ocupados que no aportan a la seguridad social)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOMINDICADOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Porcentaje de ocupados que no aporta a la seguridad social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOMINDICADOR</t>
   </si>
   <si>
     <t xml:space="preserve">DEFINICIÓN</t>
@@ -600,39 +603,39 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
